--- a/crm接口文档/联系人管理/保存联系人信息.xlsx
+++ b/crm接口文档/联系人管理/保存联系人信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>/qiuxx/crm/20010/100</t>
+    <t>/crm/20010/100</t>
   </si>
   <si>
     <t>接口描述</t>
   </si>
   <si>
-    <t>保存客户信息</t>
+    <t>保存联系人信息</t>
   </si>
   <si>
     <t>接口地址</t>
@@ -84,7 +84,10 @@
     <t>lkmSex</t>
   </si>
   <si>
-    <t>联系人性别 男 女</t>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>联系人性别（枚举字段 enumType=SEX）</t>
   </si>
   <si>
     <t>lkmMobile</t>
@@ -147,36 +150,10 @@
     <t>data</t>
   </si>
   <si>
-    <t>LinkmanVo</t>
+    <t>Object</t>
   </si>
   <si>
     <t>绑定信息的对象</t>
-  </si>
-  <si>
-    <t>lkmId</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存联系人信息获得联系人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
-    <t>成功时必选</t>
   </si>
 </sst>
 </file>
@@ -184,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -242,6 +219,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -250,8 +249,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,14 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,60 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,44 +362,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -419,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,24 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -694,6 +653,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,17 +690,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,17 +725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,10 +747,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,133 +759,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1327,15 +1304,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1467,10 +1445,10 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
@@ -1484,7 +1462,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
@@ -1492,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
@@ -1506,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -1514,7 +1492,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
@@ -1528,7 +1506,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
@@ -1536,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
@@ -1550,15 +1528,15 @@
         <v>17</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
       <c r="E11" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
@@ -1569,7 +1547,7 @@
     </row>
     <row r="12" ht="27.75" customHeight="1" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>12</v>
@@ -1593,18 +1571,18 @@
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:10">
       <c r="A13" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -1615,10 +1593,10 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:10">
       <c r="A14" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1626,21 +1604,21 @@
         <v>19</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14" s="17"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:10">
       <c r="A15" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1648,59 +1626,39 @@
         <v>19</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="17"/>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:10">
       <c r="A16" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" ht="23" customHeight="1" spans="1:10">
-      <c r="A17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="30">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
@@ -1731,8 +1689,6 @@
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>
